--- a/assets/lists/bevlista.xlsx
+++ b/assets/lists/bevlista.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
   <si>
     <t>Bevásárló lista</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>műanyag pohár 3dl</t>
+  </si>
+  <si>
+    <t>műanyag villa</t>
   </si>
 </sst>
 </file>
@@ -612,112 +615,113 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1027,711 +1031,809 @@
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="25" t="s">
+      <c r="E2" s="35"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="25">
         <v>1300</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="26">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="17" t="s">
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>880</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>880</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="17" t="s">
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <v>800</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>820</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="17" t="s">
+      <c r="E5" s="35"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <v>1200</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>900</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>600</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="35"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>450</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="21" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="21" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="10" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>200</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="17">
         <v>1000</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="12" t="s">
+      <c r="D12" s="27">
+        <v>1449</v>
+      </c>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>1400</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="21" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="17" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="17">
         <v>200</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="18">
         <v>190</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="17">
         <v>700</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="17" t="s">
+      <c r="D16" s="18">
+        <v>600</v>
+      </c>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>750</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="18">
         <v>750</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="17" t="s">
+      <c r="E17" s="35"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="17">
         <v>700</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="18">
         <v>680</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="17" t="s">
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="17">
         <v>2900</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="18">
         <v>2700</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6" t="s">
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="17">
         <v>460</v>
       </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="17" t="s">
+      <c r="D20" s="27">
+        <v>499</v>
+      </c>
+      <c r="E20" s="35"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="17">
         <v>720</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="27">
         <v>799</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="17" t="s">
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="17">
         <v>800</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="18">
         <v>650</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="17" t="s">
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="17">
         <v>600</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="18">
         <v>460</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="17" t="s">
+      <c r="E23" s="35"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="17">
         <v>600</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="18">
         <v>480</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
+      <c r="E24" s="35"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>3000</v>
       </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="17" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="35"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="17">
         <v>700</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="18">
         <v>670</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="17" t="s">
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="17">
         <v>1200</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="18">
         <v>1200</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="17" t="s">
+      <c r="E27" s="35"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="17">
         <v>600</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="18">
         <v>600</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
+      <c r="E28" s="35"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>1300</v>
       </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="17" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="35"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="17">
         <v>8592</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="18">
         <v>8592</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="17" t="s">
+      <c r="E30" s="35"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="17">
         <v>900</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="18">
         <v>649</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="17" t="s">
+      <c r="E31" s="35"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="17">
         <v>500</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="18">
         <v>499</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="17" t="s">
+      <c r="E32" s="35"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="17">
         <v>480</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="18">
         <v>480</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="17" t="s">
+      <c r="E33" s="35"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="17">
         <v>500</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="18">
         <v>400</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="6" t="s">
+      <c r="E34" s="35"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>500</v>
       </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="17" t="s">
+      <c r="D35" s="8"/>
+      <c r="E35" s="35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="17">
         <v>380</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="18">
         <v>380</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="6" t="s">
+      <c r="E36" s="35"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="17">
         <v>500</v>
       </c>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="17" t="s">
+      <c r="D37" s="27">
+        <v>679</v>
+      </c>
+      <c r="E37" s="35"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="17">
         <v>500</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="27">
         <v>530</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="17" t="s">
+      <c r="E38" s="35"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="17">
         <v>400</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="18">
         <v>400</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="17" t="s">
+      <c r="E39" s="35"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="17">
         <v>900</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="18">
         <v>840</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="17" t="s">
+      <c r="E40" s="35"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="17">
         <v>900</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="27">
         <v>960</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="17" t="s">
+      <c r="E41" s="35"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="17">
         <v>320</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="18">
         <v>209</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="6" t="s">
+      <c r="E42" s="35"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="17">
         <v>760</v>
       </c>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="17" t="s">
+      <c r="D43" s="18">
+        <v>700</v>
+      </c>
+      <c r="E43" s="35"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="17">
         <v>420</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="18">
         <v>420</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="6" t="s">
+      <c r="E44" s="35"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>1000</v>
       </c>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="21" t="s">
+      <c r="D45" s="8"/>
+      <c r="E45" s="35"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="24"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="6" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="35"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="17">
         <v>1000</v>
       </c>
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="6" t="s">
+      <c r="D47" s="18">
+        <v>991</v>
+      </c>
+      <c r="E47" s="35"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>1000</v>
       </c>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="17" t="s">
+      <c r="D48" s="8"/>
+      <c r="E48" s="35"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="17">
         <v>400</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="18">
         <v>390</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="17" t="s">
+      <c r="E49" s="35"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="17">
         <v>230</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="18">
         <v>230</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="17" t="s">
+      <c r="E50" s="35"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="17">
         <v>1300</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="18">
         <v>1000</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="17" t="s">
+      <c r="E51" s="35"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="17">
         <v>450</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="18">
         <v>450</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="30" t="s">
+      <c r="E52" s="35"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C53" s="30">
         <v>150</v>
       </c>
-      <c r="D53" s="33">
+      <c r="D53" s="31">
         <v>130</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="30" t="s">
+      <c r="E53" s="35"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="30">
+        <v>419</v>
+      </c>
+      <c r="D54" s="31">
+        <v>419</v>
+      </c>
+      <c r="E54" s="35"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B55" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="32">
+      <c r="C55" s="30">
         <v>300</v>
       </c>
-      <c r="D54" s="33">
+      <c r="D55" s="31">
         <v>290</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="15">
-        <v>45442</v>
-      </c>
-      <c r="D55" s="16">
-        <v>29628</v>
-      </c>
+      <c r="E55" s="35"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="13">
+        <f>SUM(C3:C55)</f>
+        <v>45861</v>
+      </c>
+      <c r="D56" s="14">
+        <f>SUM(D3:D55)</f>
+        <v>34965</v>
+      </c>
+      <c r="E56" s="35"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
